--- a/CoordinateConverterGUI/CoordinateConverter/Книга.xlsx
+++ b/CoordinateConverterGUI/CoordinateConverter/Книга.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22005"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D20EC2B-0281-4CEA-B4ED-F964A91C6D0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\CoordinateConverter\CoordinateConverterGUI\CoordinateConverter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,16 +372,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5654</v>
       </c>
@@ -388,7 +392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>456</v>
       </c>
@@ -399,7 +403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
@@ -410,7 +414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47242</v>
       </c>
@@ -421,7 +425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7547</v>
       </c>

--- a/CoordinateConverterGUI/CoordinateConverter/Книга.xlsx
+++ b/CoordinateConverterGUI/CoordinateConverter/Книга.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +397,7 @@
         <v>456</v>
       </c>
       <c r="B2">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -408,7 +408,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -419,7 +419,7 @@
         <v>47242</v>
       </c>
       <c r="B4">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -434,6 +434,1051 @@
       </c>
       <c r="C5">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>27356.2</v>
+      </c>
+      <c r="B6">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32413.4</v>
+      </c>
+      <c r="B7">
+        <v>262</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>37470.6</v>
+      </c>
+      <c r="B8">
+        <v>202.9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42527.8</v>
+      </c>
+      <c r="B9">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>47585</v>
+      </c>
+      <c r="B10">
+        <v>84.7</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>52642.2</v>
+      </c>
+      <c r="B11">
+        <v>25.6</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>57699.4</v>
+      </c>
+      <c r="B12">
+        <v>-33.5</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62756.6</v>
+      </c>
+      <c r="B13">
+        <v>-92.6</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>67813.8</v>
+      </c>
+      <c r="B14">
+        <v>-151.69999999999999</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>72871</v>
+      </c>
+      <c r="B15">
+        <v>-210.8</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>77928.2</v>
+      </c>
+      <c r="B16">
+        <v>-269.89999999999998</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>82985.399999999994</v>
+      </c>
+      <c r="B17">
+        <v>-329</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88042.6</v>
+      </c>
+      <c r="B18">
+        <v>-388.1</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93099.8</v>
+      </c>
+      <c r="B19">
+        <v>-447.2</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>98157</v>
+      </c>
+      <c r="B20">
+        <v>-506.3</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>103214.2</v>
+      </c>
+      <c r="B21">
+        <v>-565.4</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>108271.4</v>
+      </c>
+      <c r="B22">
+        <v>-624.5</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>113328.6</v>
+      </c>
+      <c r="B23">
+        <v>-683.6</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>118385.8</v>
+      </c>
+      <c r="B24">
+        <v>-742.7</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>123443</v>
+      </c>
+      <c r="B25">
+        <v>-801.8</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>128500.2</v>
+      </c>
+      <c r="B26">
+        <v>-860.9</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>133557.4</v>
+      </c>
+      <c r="B27">
+        <v>-920</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>138614.6</v>
+      </c>
+      <c r="B28">
+        <v>-979.1</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>143671.79999999999</v>
+      </c>
+      <c r="B29">
+        <v>-1038.2</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>148729</v>
+      </c>
+      <c r="B30">
+        <v>-1097.3</v>
+      </c>
+      <c r="C30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>153786.20000000001</v>
+      </c>
+      <c r="B31">
+        <v>-1156.4000000000001</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>158843.4</v>
+      </c>
+      <c r="B32">
+        <v>-1215.5</v>
+      </c>
+      <c r="C32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>163900.6</v>
+      </c>
+      <c r="B33">
+        <v>-1274.5999999999999</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>168957.8</v>
+      </c>
+      <c r="B34">
+        <v>-1333.7</v>
+      </c>
+      <c r="C34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>174015</v>
+      </c>
+      <c r="B35">
+        <v>-1392.8</v>
+      </c>
+      <c r="C35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>179072.2</v>
+      </c>
+      <c r="B36">
+        <v>-1451.9</v>
+      </c>
+      <c r="C36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>184129.4</v>
+      </c>
+      <c r="B37">
+        <v>-1511</v>
+      </c>
+      <c r="C37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>189186.6</v>
+      </c>
+      <c r="B38">
+        <v>-1570.1</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>194243.8</v>
+      </c>
+      <c r="B39">
+        <v>-1629.2</v>
+      </c>
+      <c r="C39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>199301</v>
+      </c>
+      <c r="B40">
+        <v>-1688.3</v>
+      </c>
+      <c r="C40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>204358.2</v>
+      </c>
+      <c r="B41">
+        <v>-1747.4</v>
+      </c>
+      <c r="C41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>209415.4</v>
+      </c>
+      <c r="B42">
+        <v>-1806.5</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>214472.6</v>
+      </c>
+      <c r="B43">
+        <v>-1865.6</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>219529.8</v>
+      </c>
+      <c r="B44">
+        <v>-1924.7</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>224587</v>
+      </c>
+      <c r="B45">
+        <v>-1983.8</v>
+      </c>
+      <c r="C45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>229644.2</v>
+      </c>
+      <c r="B46">
+        <v>-2042.9</v>
+      </c>
+      <c r="C46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>234701.4</v>
+      </c>
+      <c r="B47">
+        <v>-2102</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>239758.6</v>
+      </c>
+      <c r="B48">
+        <v>-2161.1</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>244815.8</v>
+      </c>
+      <c r="B49">
+        <v>-2220.1999999999998</v>
+      </c>
+      <c r="C49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>249873</v>
+      </c>
+      <c r="B50">
+        <v>-2279.3000000000002</v>
+      </c>
+      <c r="C50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>254930.2</v>
+      </c>
+      <c r="B51">
+        <v>-2338.4</v>
+      </c>
+      <c r="C51">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>259987.4</v>
+      </c>
+      <c r="B52">
+        <v>-2397.5</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>265044.59999999998</v>
+      </c>
+      <c r="B53">
+        <v>-2456.6</v>
+      </c>
+      <c r="C53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>270101.8</v>
+      </c>
+      <c r="B54">
+        <v>-2515.6999999999998</v>
+      </c>
+      <c r="C54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>275159</v>
+      </c>
+      <c r="B55">
+        <v>-2574.8000000000002</v>
+      </c>
+      <c r="C55">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>280216.2</v>
+      </c>
+      <c r="B56">
+        <v>-2633.9</v>
+      </c>
+      <c r="C56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>285273.40000000002</v>
+      </c>
+      <c r="B57">
+        <v>-2693</v>
+      </c>
+      <c r="C57">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>290330.59999999998</v>
+      </c>
+      <c r="B58">
+        <v>-2752.1</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>295387.8</v>
+      </c>
+      <c r="B59">
+        <v>-2811.2</v>
+      </c>
+      <c r="C59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>300445</v>
+      </c>
+      <c r="B60">
+        <v>-2870.3</v>
+      </c>
+      <c r="C60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>305502.2</v>
+      </c>
+      <c r="B61">
+        <v>-2929.4</v>
+      </c>
+      <c r="C61">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>310559.40000000002</v>
+      </c>
+      <c r="B62">
+        <v>-2988.5</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>315616.59999999998</v>
+      </c>
+      <c r="B63">
+        <v>-3047.6</v>
+      </c>
+      <c r="C63">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>320673.8</v>
+      </c>
+      <c r="B64">
+        <v>-3106.7</v>
+      </c>
+      <c r="C64">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>325731</v>
+      </c>
+      <c r="B65">
+        <v>-3165.8</v>
+      </c>
+      <c r="C65">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>330788.2</v>
+      </c>
+      <c r="B66">
+        <v>-3224.9</v>
+      </c>
+      <c r="C66">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>335845.4</v>
+      </c>
+      <c r="B67">
+        <v>-3284</v>
+      </c>
+      <c r="C67">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>340902.6</v>
+      </c>
+      <c r="B68">
+        <v>-3343.1</v>
+      </c>
+      <c r="C68">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>345959.8</v>
+      </c>
+      <c r="B69">
+        <v>-3402.2</v>
+      </c>
+      <c r="C69">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>351017</v>
+      </c>
+      <c r="B70">
+        <v>-3461.3</v>
+      </c>
+      <c r="C70">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>356074.2</v>
+      </c>
+      <c r="B71">
+        <v>-3520.4</v>
+      </c>
+      <c r="C71">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>361131.4</v>
+      </c>
+      <c r="B72">
+        <v>-3579.5</v>
+      </c>
+      <c r="C72">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>366188.6</v>
+      </c>
+      <c r="B73">
+        <v>-3638.6</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>371245.8</v>
+      </c>
+      <c r="B74">
+        <v>-3697.7</v>
+      </c>
+      <c r="C74">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>376303</v>
+      </c>
+      <c r="B75">
+        <v>-3756.8</v>
+      </c>
+      <c r="C75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>381360.2</v>
+      </c>
+      <c r="B76">
+        <v>-3815.9</v>
+      </c>
+      <c r="C76">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>386417.4</v>
+      </c>
+      <c r="B77">
+        <v>-3875</v>
+      </c>
+      <c r="C77">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>391474.6</v>
+      </c>
+      <c r="B78">
+        <v>-3934.1</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>396531.8</v>
+      </c>
+      <c r="B79">
+        <v>-3993.2</v>
+      </c>
+      <c r="C79">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>401589</v>
+      </c>
+      <c r="B80">
+        <v>-4052.3</v>
+      </c>
+      <c r="C80">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>406646.2</v>
+      </c>
+      <c r="B81">
+        <v>-4111.3999999999996</v>
+      </c>
+      <c r="C81">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>411703.4</v>
+      </c>
+      <c r="B82">
+        <v>-4170.5</v>
+      </c>
+      <c r="C82">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>416760.6</v>
+      </c>
+      <c r="B83">
+        <v>-4229.6000000000004</v>
+      </c>
+      <c r="C83">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>421817.8</v>
+      </c>
+      <c r="B84">
+        <v>-4288.7</v>
+      </c>
+      <c r="C84">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>426875</v>
+      </c>
+      <c r="B85">
+        <v>-4347.8</v>
+      </c>
+      <c r="C85">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>431932.2</v>
+      </c>
+      <c r="B86">
+        <v>-4406.8999999999996</v>
+      </c>
+      <c r="C86">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>436989.4</v>
+      </c>
+      <c r="B87">
+        <v>-4466</v>
+      </c>
+      <c r="C87">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>442046.6</v>
+      </c>
+      <c r="B88">
+        <v>-4525.1000000000004</v>
+      </c>
+      <c r="C88">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>447103.8</v>
+      </c>
+      <c r="B89">
+        <v>-4584.2</v>
+      </c>
+      <c r="C89">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>452161</v>
+      </c>
+      <c r="B90">
+        <v>-4643.3</v>
+      </c>
+      <c r="C90">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>457218.2</v>
+      </c>
+      <c r="B91">
+        <v>-4702.3999999999996</v>
+      </c>
+      <c r="C91">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>462275.4</v>
+      </c>
+      <c r="B92">
+        <v>-4761.5</v>
+      </c>
+      <c r="C92">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>467332.6</v>
+      </c>
+      <c r="B93">
+        <v>-4820.6000000000004</v>
+      </c>
+      <c r="C93">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>472389.8</v>
+      </c>
+      <c r="B94">
+        <v>-4879.7</v>
+      </c>
+      <c r="C94">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>477447</v>
+      </c>
+      <c r="B95">
+        <v>-4938.8</v>
+      </c>
+      <c r="C95">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>482504.2</v>
+      </c>
+      <c r="B96">
+        <v>-4997.8999999999996</v>
+      </c>
+      <c r="C96">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>487561.4</v>
+      </c>
+      <c r="B97">
+        <v>-5057</v>
+      </c>
+      <c r="C97">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>492618.6</v>
+      </c>
+      <c r="B98">
+        <v>-5116.1000000000004</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>497675.8</v>
+      </c>
+      <c r="B99">
+        <v>-5175.2</v>
+      </c>
+      <c r="C99">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>502733</v>
+      </c>
+      <c r="B100">
+        <v>-5234.3</v>
+      </c>
+      <c r="C100">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
